--- a/new.xlsx
+++ b/new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\newpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1C0133-EB26-4E51-9197-F28BC1D17779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF93CD60-1013-4919-98E4-9F899287E9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,54 +20,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>二</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>四</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>六</t>
-  </si>
-  <si>
-    <t>七</t>
-  </si>
-  <si>
-    <t>八</t>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -90,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -98,30 +86,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -460,74 +430,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
